--- a/テスト項目/データベース.xlsx
+++ b/テスト項目/データベース.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -71,16 +71,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カートごとに画面を分かれさせる</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -167,25 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>決算するとカート内にある商品がカート内から消える</t>
-    <rPh sb="0" eb="2">
-      <t>ケッサン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>決算完了画面に残高、購入額を表示させる</t>
     <rPh sb="0" eb="2">
       <t>ケッサン</t>
@@ -264,6 +235,54 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBにある画像URLからWeb上に画像を表示させる</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートごとに画面を分かれて表示させる</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決算するとカート内にある商品がカート内DBから消える</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -607,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -643,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -655,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -667,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -679,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -691,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -703,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -715,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -727,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -739,7 +758,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -751,12 +770,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/テスト項目/データベース.xlsx
+++ b/テスト項目/データベース.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -283,6 +283,45 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段原</t>
+    <rPh sb="0" eb="2">
+      <t>ダンバラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -342,10 +381,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -629,12 +669,13 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="58" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -665,9 +706,15 @@
         <v>15</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -677,9 +724,15 @@
         <v>6</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -689,9 +742,15 @@
         <v>9</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
@@ -701,9 +760,15 @@
         <v>16</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
@@ -713,9 +778,15 @@
         <v>7</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -725,9 +796,15 @@
         <v>10</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -737,9 +814,15 @@
         <v>8</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
@@ -749,9 +832,15 @@
         <v>11</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
@@ -761,9 +850,15 @@
         <v>12</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
@@ -773,9 +868,15 @@
         <v>13</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
@@ -785,9 +886,15 @@
         <v>14</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
